--- a/stat.xlsx
+++ b/stat.xlsx
@@ -29,7 +29,7 @@
     <t>Mitya Bagdadi</t>
   </si>
   <si>
-    <t>3</t>
+    <t>0</t>
   </si>
   <si>
     <t>Dmitry Redkin</t>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -6,36 +6,39 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="b22-702" r:id="rId3" sheetId="1"/>
+    <sheet name="b22-000" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Geometry</t>
+    <t>Psychology</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>2022-12-07</t>
+    <t>2022-12-08</t>
   </si>
   <si>
-    <t>Gleb Shuliko</t>
+    <t>Till Lindeman</t>
   </si>
   <si>
-    <t>Mitya Bagdadi</t>
+    <t>5</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Mike Jackson</t>
   </si>
   <si>
-    <t>Dmitry Redkin</t>
+    <t>Vladimir Antonov</t>
   </si>
   <si>
-    <t>Dmitry Leonov</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Zoro Flex</t>
   </si>
 </sst>
 </file>
@@ -103,25 +106,27 @@
       <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B5" s="0"/>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0"/>
     </row>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -12,30 +12,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Psychology</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+  <si>
+    <t>Geometry</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
     <t>2022-12-08</t>
   </si>
   <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
     <t>Till Lindeman</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>Mike Jackson</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Vladimir Antonov</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Zoro Flex</t>
@@ -83,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -101,34 +119,88 @@
       <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Geometry</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
   </si>
   <si>
     <t>Till Lindeman</t>
@@ -101,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -131,76 +134,81 @@
       <c r="F2" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="F5" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B6" s="0"/>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
-      <c r="E6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
